--- a/biology/Botanique/Psydrax_odorata/Psydrax_odorata.xlsx
+++ b/biology/Botanique/Psydrax_odorata/Psydrax_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psydrax odorata est une espèce de plante à fleur du genre Psydrax, de la famille des Rubiaceae.
 </t>
@@ -513,17 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Psydrax odorata est un arbuste qui mesure de 1,8 à 9,1 mètres de hauteur[1], de 0,91 à 2,13 m de largeur[2] et un diamètre à hauteur de poitrine allant jusqu'à 10 centimètres.
-Feuilles
-Les feuilles, opposées, atteignent 89 millimètres de long et sont elliptiques.
-Elles sont vert foncé et brillantes dessus, plus claires dessous. Leur pétiole est jaune et aplati[3].
-Leur apparence est différente sur les jeunes individus : plus courtes, leur marge est souvent cernée d'un vert plus foncé[réf. souhaitée].
-Fleurs
-Les fleurs sont blanches, odoriférantes, arrondies, en opposition 2 par 2[1].
-Fruits
-Les fruits de la plante sont assez ronds, de couleur noire[1].
-</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Psydrax odorata est un arbuste qui mesure de 1,8 à 9,1 mètres de hauteur, de 0,91 à 2,13 m de largeur et un diamètre à hauteur de poitrine allant jusqu'à 10 centimètres.</t>
         </is>
       </c>
     </row>
@@ -548,13 +556,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Psydrax odorata se trouve dans les îles du Pacifique[2], en Nouvelle-Guinée[4], en Australie[5] et en Nouvelle-Calédonie[1].
-L'espèce pousse sur des terres arbustives et sèches et dans des forêts sèches[2], humides[2] et sclérophylles[1], dans des maquis miniers[1], à une altitude pouvant atteindre 800 m.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, opposées, atteignent 89 millimètres de long et sont elliptiques.
+Elles sont vert foncé et brillantes dessus, plus claires dessous. Leur pétiole est jaune et aplati.
+Leur apparence est différente sur les jeunes individus : plus courtes, leur marge est souvent cernée d'un vert plus foncé[réf. souhaitée].
 </t>
         </is>
       </c>
@@ -580,14 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie, cette espèce est appréciée par les cerfs. A force d'être broutée par ces animaux, elle peut présenter un aspect de bonsaï[3].
-Les fleurs sont fréquentées par de nombreux insectes[3].
-Les fruits produisent de nombreuses graines qui sont souvent attaquées par la chenille de Alucita objurgatella[2].
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches, odoriférantes, arrondies, en opposition 2 par 2.
 </t>
         </is>
       </c>
@@ -613,10 +632,118 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de la plante sont assez ronds, de couleur noire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psydrax_odorata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psydrax_odorata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psydrax odorata se trouve dans les îles du Pacifique, en Nouvelle-Guinée, en Australie et en Nouvelle-Calédonie.
+L'espèce pousse sur des terres arbustives et sèches et dans des forêts sèches, humides et sclérophylles, dans des maquis miniers, à une altitude pouvant atteindre 800 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Psydrax_odorata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psydrax_odorata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, cette espèce est appréciée par les cerfs. A force d'être broutée par ces animaux, elle peut présenter un aspect de bonsaï.
+Les fleurs sont fréquentées par de nombreux insectes.
+Les fruits produisent de nombreuses graines qui sont souvent attaquées par la chenille de Alucita objurgatella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Psydrax_odorata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psydrax_odorata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les autochtones hawaïens utilisaient le bois très dur pour fabriquer des herminettes pour couper des bois plus mous tels que Erythrina sandwicensis, des bâtons fouisseurs et de petites lances. Un colorant noir fut fabriqué à partir des feuilles.
 </t>
